--- a/biology/Botanique/Orthotrichum/Orthotrichum.xlsx
+++ b/biology/Botanique/Orthotrichum/Orthotrichum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orthotrichum est un genre de mousses de la famille des Orthotrichaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (19 septembre 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (19 septembre 2020) :
 Orthotrichum acuminatum Philibert, 1881
 Orthotrichum aequatoreum Mitten, 1869
 Orthotrichum affine Schrader ex Bridel, 1801
@@ -666,7 +680,7 @@
 Orthotrichum vicarium Lazarenko, 1938
 Orthotrichum vittii F. Lara, Garilleti &amp; Mazimpaka in F. Lara &amp; al., 1999
 Orthotrichum vladikavkanum Venturi in Husnot, 1887
-Selon ITIS      (19 septembre 2020)[3] :
+Selon ITIS      (19 septembre 2020) :
 variété Orthotrichum pallens var. crenulatum Vitt
 variété Orthotrichum pallens var. johnsenae Vitt
 variété Orthotrichum pallens var. pallens Bruch ex Brid.
@@ -709,7 +723,7 @@
 Orthotrichum strangulatum P. Beauv.
 Orthotrichum striatum Hedw.
 Orthotrichum tenellum Bruch ex Brid.
-Selon The Plant List            (19 septembre 2020)[4] :
+Selon The Plant List            (19 septembre 2020) :
 Orthotrichum abbreviatum Gronvall
 Orthotrichum acuminatum H. Philib.
 Orthotrichum aequatoreum Mitt.
@@ -987,7 +1001,7 @@
 Orthotrichum vittii F. Lara, Garilleti &amp; Mazimpaka
 Orthotrichum vladikavkanum Venturi
 Orthotrichum winteri Schimp.
-Selon Tropicos                                           (19 septembre 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (19 septembre 2020) (Attention liste brute contenant possiblement des synonymes) :
 Orthotrichum abbreviatum Grönvall
 Orthotrichum acroblepharis Müll. Hal.
 Orthotrichum acuminatum H. Philib.
@@ -1367,7 +1381,7 @@
 Orthotrichum pringlei Müll. Hal.
 Orthotrichum prorepens Hook.
 Orthotrichum pseudopumilum Venturi
-Or</t>
+Orthotrichum p</t>
         </is>
       </c>
     </row>
